--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y523"/>
+  <dimension ref="A1:Y524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
       </c>
       <c r="R522" s="2" t="inlineStr"/>
     </row>
-    <row r="523">
+    <row r="523" ht="15" customHeight="1">
       <c r="A523" t="inlineStr">
         <is>
           <t>A 39609-2023</t>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31875,6 +31875,63 @@
         <v>0</v>
       </c>
       <c r="R523" s="2" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>A 41065-2023</t>
+        </is>
+      </c>
+      <c r="B524" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C524" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G524" t="n">
+        <v>1</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N524" t="n">
+        <v>0</v>
+      </c>
+      <c r="O524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R524" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y524"/>
+  <dimension ref="A1:Y526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
       </c>
       <c r="R523" s="2" t="inlineStr"/>
     </row>
-    <row r="524">
+    <row r="524" ht="15" customHeight="1">
       <c r="A524" t="inlineStr">
         <is>
           <t>A 41065-2023</t>
@@ -31886,7 +31886,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31932,6 +31932,120 @@
         <v>0</v>
       </c>
       <c r="R524" s="2" t="inlineStr"/>
+    </row>
+    <row r="525" ht="15" customHeight="1">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>A 42248-2023</t>
+        </is>
+      </c>
+      <c r="B525" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C525" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G525" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N525" t="n">
+        <v>0</v>
+      </c>
+      <c r="O525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R525" s="2" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>A 42293-2023</t>
+        </is>
+      </c>
+      <c r="B526" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C526" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G526" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N526" t="n">
+        <v>0</v>
+      </c>
+      <c r="O526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R526" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y526"/>
+  <dimension ref="A1:Y528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43684</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43717</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44008</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44076</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44314</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44328</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44634</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>44686</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44826</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44918</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45093</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45107</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43335</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43366</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43371</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43388</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43397</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43398</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43405</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43406</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43413</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43417</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43427</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43440</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43447</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43474</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>43476</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>43480</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>43481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>43483</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29878,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
       </c>
       <c r="R525" s="2" t="inlineStr"/>
     </row>
-    <row r="526">
+    <row r="526" ht="15" customHeight="1">
       <c r="A526" t="inlineStr">
         <is>
           <t>A 42293-2023</t>
@@ -32000,7 +32000,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32046,6 +32046,125 @@
         <v>0</v>
       </c>
       <c r="R526" s="2" t="inlineStr"/>
+    </row>
+    <row r="527" ht="15" customHeight="1">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>A 42899-2023</t>
+        </is>
+      </c>
+      <c r="B527" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C527" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G527" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N527" t="n">
+        <v>0</v>
+      </c>
+      <c r="O527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R527" s="2" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>A 43321-2023</t>
+        </is>
+      </c>
+      <c r="B528" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C528" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G528" t="n">
+        <v>1</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N528" t="n">
+        <v>0</v>
+      </c>
+      <c r="O528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R528" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 43416-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 43416-2020.xlsx", "A 43416-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 43416-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 43416-2020.png", "A 43416-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 43416-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 43416-2020.docx", "A 43416-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 43416-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 43416-2020.docx", "A 43416-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 43416-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 43416-2020.docx", "A 43416-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 43416-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 43416-2020.docx", "A 43416-2020")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -727,27 +727,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 33728-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 33728-2020.xlsx", "A 33728-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 33728-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 33728-2020.png", "A 33728-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 33728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 33728-2020.docx", "A 33728-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 33728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 33728-2020.docx", "A 33728-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 33728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 33728-2020.docx", "A 33728-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 33728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 33728-2020.docx", "A 33728-2020")</f>
         <v/>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>44840</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,27 +816,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 44586-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 44586-2022.xlsx", "A 44586-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 44586-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 44586-2022.png", "A 44586-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 44586-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 44586-2022.docx", "A 44586-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 44586-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 44586-2022.docx", "A 44586-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 44586-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 44586-2022.docx", "A 44586-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 44586-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 44586-2022.docx", "A 44586-2022")</f>
         <v/>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>43593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,27 +909,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 23417-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 23417-2019.xlsx", "A 23417-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 23417-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 23417-2019.png", "A 23417-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 23417-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 23417-2019.docx", "A 23417-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 23417-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 23417-2019.docx", "A 23417-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 23417-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 23417-2019.docx", "A 23417-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 23417-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 23417-2019.docx", "A 23417-2019")</f>
         <v/>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,27 +1002,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 2837-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 2837-2023.xlsx", "A 2837-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 2837-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 2837-2023.png", "A 2837-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 2837-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 2837-2023.docx", "A 2837-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 2837-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 2837-2023.docx", "A 2837-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 2837-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 2837-2023.docx", "A 2837-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 2837-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 2837-2023.docx", "A 2837-2023")</f>
         <v/>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,27 +1090,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 27942-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 27942-2023.xlsx", "A 27942-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 27942-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 27942-2023.png", "A 27942-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 27942-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 27942-2023.docx", "A 27942-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 27942-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 27942-2023.docx", "A 27942-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 27942-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 27942-2023.docx", "A 27942-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 27942-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 27942-2023.docx", "A 27942-2023")</f>
         <v/>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
         <v>44008</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,27 +1182,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 30682-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 30682-2020.xlsx", "A 30682-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 30682-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 30682-2020.png", "A 30682-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 30682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 30682-2020.docx", "A 30682-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 30682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 30682-2020.docx", "A 30682-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 30682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 30682-2020.docx", "A 30682-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 30682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 30682-2020.docx", "A 30682-2020")</f>
         <v/>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
         <v>44473</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,27 +1269,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 54542-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 54542-2021.xlsx", "A 54542-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 54542-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 54542-2021.png", "A 54542-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 54542-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 54542-2021.docx", "A 54542-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 54542-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 54542-2021.docx", "A 54542-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 54542-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 54542-2021.docx", "A 54542-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 54542-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 54542-2021.docx", "A 54542-2021")</f>
         <v/>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
         <v>45000</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,27 +1356,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 12576-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 12576-2023.xlsx", "A 12576-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 12576-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 12576-2023.png", "A 12576-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 12576-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 12576-2023.docx", "A 12576-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 12576-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 12576-2023.docx", "A 12576-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 12576-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 12576-2023.docx", "A 12576-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 12576-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 12576-2023.docx", "A 12576-2023")</f>
         <v/>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>43543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,27 +1447,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 15597-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 15597-2019.xlsx", "A 15597-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 15597-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 15597-2019.png", "A 15597-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 15597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 15597-2019.docx", "A 15597-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 15597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 15597-2019.docx", "A 15597-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 15597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 15597-2019.docx", "A 15597-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 15597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 15597-2019.docx", "A 15597-2019")</f>
         <v/>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,27 +1533,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 21117-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 21117-2021.xlsx", "A 21117-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 21117-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 21117-2021.png", "A 21117-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 21117-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 21117-2021.docx", "A 21117-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 21117-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 21117-2021.docx", "A 21117-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 21117-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 21117-2021.docx", "A 21117-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 21117-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 21117-2021.docx", "A 21117-2021")</f>
         <v/>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1619,27 +1619,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 22968-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 22968-2021.xlsx", "A 22968-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 22968-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 22968-2021.png", "A 22968-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 22968-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 22968-2021.docx", "A 22968-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 22968-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 22968-2021.docx", "A 22968-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 22968-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 22968-2021.docx", "A 22968-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 22968-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 22968-2021.docx", "A 22968-2021")</f>
         <v/>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
         <v>44494</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,27 +1705,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 59690-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 59690-2021.xlsx", "A 59690-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 59690-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 59690-2021.png", "A 59690-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 59690-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 59690-2021.docx", "A 59690-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 59690-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 59690-2021.docx", "A 59690-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 59690-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 59690-2021.docx", "A 59690-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 59690-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 59690-2021.docx", "A 59690-2021")</f>
         <v/>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
         <v>44767</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,27 +1791,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 30842-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 30842-2022.xlsx", "A 30842-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 30842-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 30842-2022.png", "A 30842-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 30842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 30842-2022.docx", "A 30842-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 30842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 30842-2022.docx", "A 30842-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 30842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 30842-2022.docx", "A 30842-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 30842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 30842-2022.docx", "A 30842-2022")</f>
         <v/>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>44840</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,27 +1877,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 44585-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 44585-2022.xlsx", "A 44585-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 44585-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 44585-2022.png", "A 44585-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 44585-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 44585-2022.docx", "A 44585-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 44585-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 44585-2022.docx", "A 44585-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 44585-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 44585-2022.docx", "A 44585-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 44585-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 44585-2022.docx", "A 44585-2022")</f>
         <v/>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
         <v>45016</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,27 +1963,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 15229-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 15229-2023.xlsx", "A 15229-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 15229-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 15229-2023.png", "A 15229-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 15229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 15229-2023.docx", "A 15229-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 15229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 15229-2023.docx", "A 15229-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 15229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 15229-2023.docx", "A 15229-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 15229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 15229-2023.docx", "A 15229-2023")</f>
         <v/>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
         <v>45128</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2049,27 +2049,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 33364-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 33364-2023.xlsx", "A 33364-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 33364-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 33364-2023.png", "A 33364-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 33364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 33364-2023.docx", "A 33364-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 33364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 33364-2023.docx", "A 33364-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 33364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 33364-2023.docx", "A 33364-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 33364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 33364-2023.docx", "A 33364-2023")</f>
         <v/>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2134,27 +2134,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 66018-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 66018-2018.xlsx", "A 66018-2018")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 66018-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 66018-2018.png", "A 66018-2018")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 66018-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 66018-2018.docx", "A 66018-2018")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 66018-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 66018-2018.docx", "A 66018-2018")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 66018-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 66018-2018.docx", "A 66018-2018")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 66018-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 66018-2018.docx", "A 66018-2018")</f>
         <v/>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>43437</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2219,27 +2219,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 66665-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 66665-2018.xlsx", "A 66665-2018")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 66665-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 66665-2018.png", "A 66665-2018")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 66665-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 66665-2018.docx", "A 66665-2018")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 66665-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 66665-2018.docx", "A 66665-2018")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 66665-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 66665-2018.docx", "A 66665-2018")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 66665-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 66665-2018.docx", "A 66665-2018")</f>
         <v/>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2304,41 +2304,41 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 569-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 569-2019.xlsx", "A 569-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 569-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 569-2019.png", "A 569-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 569-2019.docx", "A 569-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 569-2019.docx", "A 569-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 569-2019.docx", "A 569-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 569-2019.docx", "A 569-2019")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 23366-2019</t>
+          <t>A 5490-2019</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43593</v>
+        <v>43489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2380,55 +2380,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Hedblomster</t>
+          <t>Blanksvart trämyra</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 23366-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 5490-2019.xlsx", "A 5490-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 23366-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 5490-2019.png", "A 5490-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 23366-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 5490-2019.docx", "A 5490-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 23366-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 5490-2019.docx", "A 5490-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 23366-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 5490-2019.docx", "A 5490-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 23366-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 5490-2019.docx", "A 5490-2019")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 38678-2019</t>
+          <t>A 23366-2019</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43684</v>
+        <v>43593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,8 +2440,13 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2475,45 +2480,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Backsippa</t>
+          <t>Hedblomster</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 38678-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 23366-2019.xlsx", "A 23366-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 38678-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 23366-2019.png", "A 23366-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 38678-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 23366-2019.docx", "A 23366-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 38678-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 23366-2019.docx", "A 23366-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 38678-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 23366-2019.docx", "A 23366-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 38678-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 23366-2019.docx", "A 23366-2019")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46680-2019</t>
+          <t>A 38678-2019</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43717</v>
+        <v>43684</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2526,20 +2531,20 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
@@ -2550,55 +2555,55 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Backsippa</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 46680-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 38678-2019.xlsx", "A 38678-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 46680-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 38678-2019.png", "A 38678-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 46680-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 38678-2019.docx", "A 38678-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 46680-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 38678-2019.docx", "A 38678-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 46680-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 38678-2019.docx", "A 38678-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 46680-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 38678-2019.docx", "A 38678-2019")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 30687-2020</t>
+          <t>A 46680-2019</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44008</v>
+        <v>43717</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2610,22 +2615,17 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2650,45 +2650,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Stortapetserarbi</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 30687-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 46680-2019.xlsx", "A 46680-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 30687-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 46680-2019.png", "A 46680-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 30687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 46680-2019.docx", "A 46680-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 30687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 46680-2019.docx", "A 46680-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 30687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 46680-2019.docx", "A 46680-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 30687-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 46680-2019.docx", "A 46680-2019")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42615-2020</t>
+          <t>A 30687-2020</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44076</v>
+        <v>44008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2700,8 +2700,13 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2735,45 +2740,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Lamellsnäcka</t>
+          <t>Stortapetserarbi</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 42615-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 30687-2020.xlsx", "A 30687-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 42615-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 30687-2020.png", "A 30687-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 42615-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 30687-2020.docx", "A 30687-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 42615-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 30687-2020.docx", "A 30687-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 42615-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 30687-2020.docx", "A 30687-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 42615-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 30687-2020.docx", "A 30687-2020")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21568-2021</t>
+          <t>A 42615-2020</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44314</v>
+        <v>44076</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2786,17 +2791,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>18.4</v>
+        <v>7.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -2810,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2820,45 +2825,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Lamellsnäcka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 21568-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 42615-2020.xlsx", "A 42615-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 21568-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 42615-2020.png", "A 42615-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 21568-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 42615-2020.docx", "A 42615-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 21568-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 42615-2020.docx", "A 42615-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 21568-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 42615-2020.docx", "A 42615-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 21568-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 42615-2020.docx", "A 42615-2020")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22549-2021</t>
+          <t>A 21568-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2871,13 +2876,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>18.4</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2905,45 +2910,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 22549-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 21568-2021.xlsx", "A 21568-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 22549-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 21568-2021.png", "A 21568-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 22549-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 21568-2021.docx", "A 21568-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 22549-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 21568-2021.docx", "A 21568-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 22549-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 21568-2021.docx", "A 21568-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 22549-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 21568-2021.docx", "A 21568-2021")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22967-2021</t>
+          <t>A 22549-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2956,16 +2961,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2980,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2990,45 +2995,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 22967-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 22549-2021.xlsx", "A 22549-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 22967-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 22549-2021.png", "A 22549-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 22967-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 22549-2021.docx", "A 22549-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 22967-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 22549-2021.docx", "A 22549-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 22967-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 22549-2021.docx", "A 22549-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 22967-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 22549-2021.docx", "A 22549-2021")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52039-2021</t>
+          <t>A 22967-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44463</v>
+        <v>44328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3044,14 +3049,14 @@
         <v>3.1</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3075,45 +3080,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 52039-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 22967-2021.xlsx", "A 22967-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 52039-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 22967-2021.png", "A 22967-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 52039-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 22967-2021.docx", "A 22967-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 52039-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 22967-2021.docx", "A 22967-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 52039-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 22967-2021.docx", "A 22967-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 52039-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 22967-2021.docx", "A 22967-2021")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11750-2022</t>
+          <t>A 52039-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44634</v>
+        <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3126,10 +3131,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3138,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3150,55 +3155,55 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Sanddådra</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 11750-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 52039-2021.xlsx", "A 52039-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 11750-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 52039-2021.png", "A 52039-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 11750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 52039-2021.docx", "A 52039-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 11750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 52039-2021.docx", "A 52039-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 11750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 52039-2021.docx", "A 52039-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 11750-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 52039-2021.docx", "A 52039-2021")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18539-2022</t>
+          <t>A 11750-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44686</v>
+        <v>44634</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3211,7 +3216,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3220,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3238,52 +3243,52 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Skogslysing</t>
+          <t>Sanddådra</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 18539-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 11750-2022.xlsx", "A 11750-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 18539-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 11750-2022.png", "A 11750-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 18539-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 11750-2022.docx", "A 11750-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 18539-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 11750-2022.docx", "A 11750-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 18539-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 11750-2022.docx", "A 11750-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 18539-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 11750-2022.docx", "A 11750-2022")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41004-2022</t>
+          <t>A 18539-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44825</v>
+        <v>44686</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3296,17 +3301,17 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3320,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3330,45 +3335,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Skogslysing</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 41004-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 18539-2022.xlsx", "A 18539-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 41004-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 18539-2022.png", "A 18539-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 41004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 18539-2022.docx", "A 18539-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 41004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 18539-2022.docx", "A 18539-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 41004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 18539-2022.docx", "A 18539-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 41004-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 18539-2022.docx", "A 18539-2022")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41275-2022</t>
+          <t>A 41004-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44826</v>
+        <v>44825</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3381,14 +3386,14 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3405,55 +3410,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Praktnejlika</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 41275-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 41004-2022.xlsx", "A 41004-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 41275-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 41004-2022.png", "A 41004-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 41275-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 41004-2022.docx", "A 41004-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 41275-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 41004-2022.docx", "A 41004-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 41275-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 41004-2022.docx", "A 41004-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 41275-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 41004-2022.docx", "A 41004-2022")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 61885-2022</t>
+          <t>A 41275-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44917</v>
+        <v>44826</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3466,22 +3471,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3493,52 +3498,52 @@
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Praktnejlika</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 61885-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 41275-2022.xlsx", "A 41275-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 61885-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 41275-2022.png", "A 41275-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 61885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 41275-2022.docx", "A 41275-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 61885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 41275-2022.docx", "A 41275-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 61885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 41275-2022.docx", "A 41275-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 61885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 41275-2022.docx", "A 41275-2022")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62067-2022</t>
+          <t>A 61885-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44918</v>
+        <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3551,17 +3556,17 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3575,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3585,45 +3590,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Plattad jordtunga</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 62067-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 61885-2022.xlsx", "A 61885-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 62067-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 61885-2022.png", "A 61885-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 62067-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 61885-2022.docx", "A 61885-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 62067-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 61885-2022.docx", "A 61885-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 62067-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 61885-2022.docx", "A 61885-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 62067-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 61885-2022.docx", "A 61885-2022")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62065-2022</t>
+          <t>A 62067-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3636,19 +3641,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3660,55 +3665,55 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Myrvapenfluga</t>
+          <t>Plattad jordtunga</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 62065-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 62067-2022.xlsx", "A 62067-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 62065-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 62067-2022.png", "A 62067-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 62065-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 62067-2022.docx", "A 62067-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 62065-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 62067-2022.docx", "A 62067-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 62065-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 62067-2022.docx", "A 62067-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 62065-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 62067-2022.docx", "A 62067-2022")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26965-2023</t>
+          <t>A 62065-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45093</v>
+        <v>44918</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3720,13 +3725,8 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>9.9</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3760,45 +3760,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Sjötåtel</t>
+          <t>Myrvapenfluga</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 26965-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 62065-2022.xlsx", "A 62065-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 26965-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 62065-2022.png", "A 62065-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 26965-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 62065-2022.docx", "A 62065-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 26965-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 62065-2022.docx", "A 62065-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 26965-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 62065-2022.docx", "A 62065-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 26965-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 62065-2022.docx", "A 62065-2022")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 29683-2023</t>
+          <t>A 26965-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45107</v>
+        <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3810,8 +3810,13 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>7.4</v>
+        <v>9.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3845,45 +3850,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Småvänderot</t>
+          <t>Sjötåtel</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 29683-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 26965-2023.xlsx", "A 26965-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 29683-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 26965-2023.png", "A 26965-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 29683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 26965-2023.docx", "A 26965-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 29683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 26965-2023.docx", "A 26965-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 29683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 26965-2023.docx", "A 26965-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 29683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 26965-2023.docx", "A 26965-2023")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 37201-2018</t>
+          <t>A 29683-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43333</v>
+        <v>45107</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3896,7 +3901,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>7.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3908,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3920,27 +3925,55 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 29683-2023.xlsx", "A 29683-2023")</f>
+        <v/>
+      </c>
+      <c r="T40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 29683-2023.png", "A 29683-2023")</f>
+        <v/>
+      </c>
+      <c r="V40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 29683-2023.docx", "A 29683-2023")</f>
+        <v/>
+      </c>
+      <c r="W40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 29683-2023.docx", "A 29683-2023")</f>
+        <v/>
+      </c>
+      <c r="X40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 29683-2023.docx", "A 29683-2023")</f>
+        <v/>
+      </c>
+      <c r="Y40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 29683-2023.docx", "A 29683-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 37621-2018</t>
+          <t>A 37201-2018</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43335</v>
+        <v>43333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3953,7 +3986,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>14.3</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3990,14 +4023,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 40081-2018</t>
+          <t>A 37621-2018</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43343</v>
+        <v>43335</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4010,7 +4043,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>14.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4047,14 +4080,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 43966-2018</t>
+          <t>A 40081-2018</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43360</v>
+        <v>43343</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4066,13 +4099,8 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>11.9</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4109,14 +4137,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46716-2018</t>
+          <t>A 43966-2018</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43366</v>
+        <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,8 +4156,13 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>11.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4166,14 +4199,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48066-2018</t>
+          <t>A 46716-2018</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43371</v>
+        <v>43366</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4186,7 +4219,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4223,14 +4256,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50545-2018</t>
+          <t>A 48066-2018</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43376</v>
+        <v>43371</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4243,7 +4276,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4280,14 +4313,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52488-2018</t>
+          <t>A 50545-2018</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43388</v>
+        <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4300,7 +4333,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4337,14 +4370,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 55296-2018</t>
+          <t>A 52488-2018</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43397</v>
+        <v>43388</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4357,7 +4390,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4394,14 +4427,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55327-2018</t>
+          <t>A 55296-2018</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4414,7 +4447,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4451,14 +4484,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55308-2018</t>
+          <t>A 55327-2018</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4471,7 +4504,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4508,14 +4541,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 55332-2018</t>
+          <t>A 55308-2018</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4528,7 +4561,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4565,14 +4598,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 55977-2018</t>
+          <t>A 55332-2018</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43398</v>
+        <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4585,7 +4618,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4622,14 +4655,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59835-2018</t>
+          <t>A 55977-2018</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43405</v>
+        <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4642,7 +4675,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4679,14 +4712,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60089-2018</t>
+          <t>A 59835-2018</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>43405</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4699,7 +4732,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4736,14 +4769,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 60565-2018</t>
+          <t>A 60089-2018</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43406</v>
+        <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4756,7 +4789,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4793,14 +4826,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62676-2018</t>
+          <t>A 60565-2018</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43413</v>
+        <v>43406</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4813,7 +4846,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4850,14 +4883,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 63298-2018</t>
+          <t>A 62676-2018</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43416</v>
+        <v>43413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4870,7 +4903,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4907,14 +4940,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62365-2018</t>
+          <t>A 63298-2018</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4927,7 +4960,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4964,14 +4997,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 63431-2018</t>
+          <t>A 62365-2018</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4984,7 +5017,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5021,14 +5054,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61983-2018</t>
+          <t>A 63431-2018</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43417</v>
+        <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5041,7 +5074,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5078,14 +5111,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 64147-2018</t>
+          <t>A 61983-2018</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43419</v>
+        <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5098,7 +5131,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5135,14 +5168,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60351-2018</t>
+          <t>A 64147-2018</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43420</v>
+        <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5155,7 +5188,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5192,14 +5225,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 63396-2018</t>
+          <t>A 60351-2018</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43427</v>
+        <v>43420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5212,7 +5245,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5249,14 +5282,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 64604-2018</t>
+          <t>A 63396-2018</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43431</v>
+        <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5269,7 +5302,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5306,14 +5339,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 66099-2018</t>
+          <t>A 64604-2018</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43434</v>
+        <v>43431</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5326,7 +5359,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5363,14 +5396,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 67990-2018</t>
+          <t>A 66099-2018</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43440</v>
+        <v>43434</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5383,7 +5416,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5420,14 +5453,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 67989-2018</t>
+          <t>A 67990-2018</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43440</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5440,7 +5473,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5477,14 +5510,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 67773-2018</t>
+          <t>A 67989-2018</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5497,7 +5530,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5534,14 +5567,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 68059-2018</t>
+          <t>A 67773-2018</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43441</v>
+        <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5554,7 +5587,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5591,14 +5624,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 69102-2018</t>
+          <t>A 68059-2018</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43445</v>
+        <v>43441</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5611,7 +5644,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5648,14 +5681,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 69398-2018</t>
+          <t>A 69102-2018</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43446</v>
+        <v>43445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5668,7 +5701,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5705,14 +5738,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 70658-2018</t>
+          <t>A 69398-2018</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43447</v>
+        <v>43446</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5725,7 +5758,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5762,14 +5795,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 71106-2018</t>
+          <t>A 70658-2018</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43452</v>
+        <v>43447</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5782,7 +5815,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5819,14 +5852,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 71425-2018</t>
+          <t>A 71106-2018</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43453</v>
+        <v>43452</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5839,7 +5872,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5876,14 +5909,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 575-2019</t>
+          <t>A 71425-2018</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43455</v>
+        <v>43453</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5896,7 +5929,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5933,14 +5966,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 592-2019</t>
+          <t>A 575-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43469</v>
+        <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5953,7 +5986,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5990,14 +6023,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 595-2019</t>
+          <t>A 592-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6010,7 +6043,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6047,14 +6080,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1858-2019</t>
+          <t>A 595-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43474</v>
+        <v>43469</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6067,7 +6100,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6104,14 +6137,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2384-2019</t>
+          <t>A 1858-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43476</v>
+        <v>43474</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6124,7 +6157,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6161,14 +6194,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5233-2019</t>
+          <t>A 2384-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43480</v>
+        <v>43476</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6181,7 +6214,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6218,14 +6251,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3412-2019</t>
+          <t>A 5233-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43481</v>
+        <v>43480</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6238,7 +6271,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6275,14 +6308,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3573-2019</t>
+          <t>A 3412-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>43481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6295,7 +6328,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6332,14 +6365,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4282-2019</t>
+          <t>A 3573-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43483</v>
+        <v>43481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6352,7 +6385,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6389,14 +6422,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5515-2019</t>
+          <t>A 4282-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43489</v>
+        <v>43483</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6408,13 +6441,8 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6451,14 +6479,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5490-2019</t>
+          <t>A 5515-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6476,7 +6504,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6520,7 +6548,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6610,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6667,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6724,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6781,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6838,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6895,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6924,7 +6952,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6981,7 +7009,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7066,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7123,7 @@
         <v>43515</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7180,7 @@
         <v>43516</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7209,7 +7237,7 @@
         <v>43518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7266,7 +7294,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7323,7 +7351,7 @@
         <v>43543</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7413,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7475,7 @@
         <v>43545</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7504,7 +7532,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7561,7 +7589,7 @@
         <v>43550</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7618,7 +7646,7 @@
         <v>43551</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7675,7 +7703,7 @@
         <v>43557</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7732,7 +7760,7 @@
         <v>43559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7789,7 +7817,7 @@
         <v>43564</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7846,7 +7874,7 @@
         <v>43565</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7931,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7960,7 +7988,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8017,7 +8045,7 @@
         <v>43566</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8102,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8131,7 +8159,7 @@
         <v>43572</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8188,7 +8216,7 @@
         <v>43580</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8273,7 @@
         <v>43598</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8330,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8387,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8444,7 @@
         <v>43648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8501,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8558,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8615,7 @@
         <v>43668</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8672,7 @@
         <v>43669</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8729,7 @@
         <v>43670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8786,7 @@
         <v>43682</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8843,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8900,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8957,7 @@
         <v>43692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +9014,7 @@
         <v>43693</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9071,7 @@
         <v>43700</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9128,7 @@
         <v>43712</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9185,7 @@
         <v>43713</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,7 +9242,7 @@
         <v>43717</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9271,7 +9299,7 @@
         <v>43718</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9328,7 +9356,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9385,7 +9413,7 @@
         <v>43724</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9442,7 +9470,7 @@
         <v>43739</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9504,7 +9532,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9566,7 +9594,7 @@
         <v>43747</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9628,7 +9656,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9690,7 +9718,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9747,7 +9775,7 @@
         <v>43775</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9804,7 +9832,7 @@
         <v>43795</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9861,7 +9889,7 @@
         <v>43801</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9918,7 +9946,7 @@
         <v>43804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9975,7 +10003,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10032,7 +10060,7 @@
         <v>43811</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10089,7 +10117,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10146,7 +10174,7 @@
         <v>43812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10203,7 +10231,7 @@
         <v>43816</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10260,7 +10288,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10322,7 +10350,7 @@
         <v>43818</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10379,7 +10407,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10436,7 +10464,7 @@
         <v>43840</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10493,7 +10521,7 @@
         <v>43845</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10550,7 +10578,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10607,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10664,7 +10692,7 @@
         <v>43865</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10721,7 +10749,7 @@
         <v>43868</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10778,7 +10806,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10840,7 +10868,7 @@
         <v>43872</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10897,7 +10925,7 @@
         <v>43878</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10954,7 +10982,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11016,7 +11044,7 @@
         <v>43881</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11073,7 +11101,7 @@
         <v>43888</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11130,7 +11158,7 @@
         <v>43915</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11187,7 +11215,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11244,7 +11272,7 @@
         <v>43930</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11301,7 +11329,7 @@
         <v>43935</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11358,7 +11386,7 @@
         <v>43955</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11415,7 +11443,7 @@
         <v>43977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11472,7 +11500,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11529,7 +11557,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11591,7 +11619,7 @@
         <v>43984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11648,7 +11676,7 @@
         <v>43991</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11705,7 +11733,7 @@
         <v>43997</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11762,7 +11790,7 @@
         <v>44004</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11819,7 +11847,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11876,7 +11904,7 @@
         <v>44019</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11933,7 +11961,7 @@
         <v>44022</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11990,7 +12018,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12052,7 +12080,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12109,7 +12137,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12166,7 +12194,7 @@
         <v>44025</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12228,7 +12256,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12290,7 +12318,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12352,7 +12380,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12414,7 +12442,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12471,7 +12499,7 @@
         <v>44033</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12528,7 +12556,7 @@
         <v>44042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12585,7 +12613,7 @@
         <v>44054</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12642,7 +12670,7 @@
         <v>44074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12699,7 +12727,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12756,7 +12784,7 @@
         <v>44077</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12813,7 +12841,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12870,7 +12898,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12927,7 +12955,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12984,7 +13012,7 @@
         <v>44095</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13041,7 +13069,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13098,7 +13126,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13155,7 +13183,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13212,7 +13240,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13269,7 +13297,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13326,7 +13354,7 @@
         <v>44133</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13383,7 +13411,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13440,7 +13468,7 @@
         <v>44141</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13497,7 +13525,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13554,7 +13582,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13611,7 +13639,7 @@
         <v>44144</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13668,7 +13696,7 @@
         <v>44146</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13725,7 +13753,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13782,7 +13810,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13839,7 +13867,7 @@
         <v>44161</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13896,7 +13924,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13953,7 +13981,7 @@
         <v>44167</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14010,7 +14038,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14067,7 +14095,7 @@
         <v>44180</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14124,7 +14152,7 @@
         <v>44183</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14214,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14248,7 +14276,7 @@
         <v>44186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14305,7 +14333,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14362,7 +14390,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14419,7 +14447,7 @@
         <v>44193</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14476,7 +14504,7 @@
         <v>44199</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14533,7 +14561,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14618,7 @@
         <v>44211</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14675,7 @@
         <v>44237</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14732,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14789,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14846,7 @@
         <v>44238</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14903,7 @@
         <v>44249</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14960,7 @@
         <v>44256</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +15017,7 @@
         <v>44272</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15074,7 @@
         <v>44274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15131,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15188,7 @@
         <v>44288</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15245,7 @@
         <v>44298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15302,7 @@
         <v>44315</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15336,7 +15364,7 @@
         <v>44326</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15393,7 +15421,7 @@
         <v>44328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15450,7 +15478,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15507,7 +15535,7 @@
         <v>44341</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15569,7 +15597,7 @@
         <v>44348</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15626,7 +15654,7 @@
         <v>44349</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15683,7 +15711,7 @@
         <v>44354</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15740,7 +15768,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15797,7 +15825,7 @@
         <v>44362</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15854,7 +15882,7 @@
         <v>44365</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15911,7 +15939,7 @@
         <v>44368</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15973,7 +16001,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16030,7 +16058,7 @@
         <v>44378</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16087,7 +16115,7 @@
         <v>44384</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16149,7 +16177,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16211,7 +16239,7 @@
         <v>44390</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16273,7 +16301,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16335,7 +16363,7 @@
         <v>44399</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16392,7 +16420,7 @@
         <v>44410</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16449,7 +16477,7 @@
         <v>44412</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16506,7 +16534,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16563,7 +16591,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16620,7 +16648,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16677,7 +16705,7 @@
         <v>44419</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16734,7 +16762,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16796,7 +16824,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16853,7 +16881,7 @@
         <v>44428</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16910,7 +16938,7 @@
         <v>44433</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16972,7 +17000,7 @@
         <v>44434</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17034,7 +17062,7 @@
         <v>44435</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17091,7 +17119,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17148,7 +17176,7 @@
         <v>44442</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17210,7 +17238,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17272,7 +17300,7 @@
         <v>44449</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17329,7 +17357,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17386,7 +17414,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17448,7 +17476,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17505,7 +17533,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17562,7 +17590,7 @@
         <v>44460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17619,7 +17647,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17666,23 +17694,23 @@
       </c>
       <c r="R278" s="2" t="inlineStr"/>
       <c r="U278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/knärot/A 50834-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/knärot/A 50834-2021.png", "A 50834-2021")</f>
         <v/>
       </c>
       <c r="V278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 50834-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 50834-2021.docx", "A 50834-2021")</f>
         <v/>
       </c>
       <c r="W278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 50834-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 50834-2021.docx", "A 50834-2021")</f>
         <v/>
       </c>
       <c r="X278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 50834-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 50834-2021.docx", "A 50834-2021")</f>
         <v/>
       </c>
       <c r="Y278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 50834-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 50834-2021.docx", "A 50834-2021")</f>
         <v/>
       </c>
     </row>
@@ -17696,7 +17724,7 @@
         <v>44461</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17781,7 @@
         <v>44463</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17810,7 +17838,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17867,7 +17895,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17924,7 +17952,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17981,7 +18009,7 @@
         <v>44468</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18038,7 +18066,7 @@
         <v>44470</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18095,7 +18123,7 @@
         <v>44476</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18157,7 +18185,7 @@
         <v>44480</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18219,7 +18247,7 @@
         <v>44483</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18276,7 +18304,7 @@
         <v>44487</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18333,7 +18361,7 @@
         <v>44491</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18390,7 +18418,7 @@
         <v>44497</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18447,7 +18475,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18504,7 +18532,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18561,7 +18589,7 @@
         <v>44503</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18623,7 +18651,7 @@
         <v>44510</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18680,7 +18708,7 @@
         <v>44513</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18737,7 +18765,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18794,7 +18822,7 @@
         <v>44522</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18851,7 +18879,7 @@
         <v>44533</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18908,7 +18936,7 @@
         <v>44536</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18965,7 +18993,7 @@
         <v>44537</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19022,7 +19050,7 @@
         <v>44540</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19079,7 +19107,7 @@
         <v>44558</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19136,7 +19164,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19193,7 +19221,7 @@
         <v>44560</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19250,7 +19278,7 @@
         <v>44572</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19307,7 +19335,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19364,7 +19392,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19421,7 +19449,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19478,7 +19506,7 @@
         <v>44575</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19540,7 +19568,7 @@
         <v>44579</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19597,7 +19625,7 @@
         <v>44587</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19659,7 +19687,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19716,7 +19744,7 @@
         <v>44595</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19773,7 +19801,7 @@
         <v>44596</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19830,7 +19858,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19887,7 +19915,7 @@
         <v>44607</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19944,7 +19972,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20001,7 +20029,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20058,7 +20086,7 @@
         <v>44608</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20115,7 +20143,7 @@
         <v>44609</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20177,7 +20205,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20234,7 +20262,7 @@
         <v>44613</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20291,7 +20319,7 @@
         <v>44622</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20348,7 +20376,7 @@
         <v>44627</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20405,7 +20433,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20462,7 +20490,7 @@
         <v>44628</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20519,7 +20547,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20576,7 +20604,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20633,7 +20661,7 @@
         <v>44629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20690,7 +20718,7 @@
         <v>44634</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20747,7 +20775,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20804,7 +20832,7 @@
         <v>44638</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20861,7 +20889,7 @@
         <v>44655</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20918,7 +20946,7 @@
         <v>44656</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20975,7 +21003,7 @@
         <v>44669</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21032,7 +21060,7 @@
         <v>44670</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21089,7 +21117,7 @@
         <v>44685</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21146,7 +21174,7 @@
         <v>44686</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21203,7 +21231,7 @@
         <v>44694</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21260,7 +21288,7 @@
         <v>44697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21317,7 +21345,7 @@
         <v>44705</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21374,7 +21402,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21431,7 +21459,7 @@
         <v>44706</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21488,7 +21516,7 @@
         <v>44712</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21550,7 +21578,7 @@
         <v>44713</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21612,7 +21640,7 @@
         <v>44720</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21669,7 +21697,7 @@
         <v>44721</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21726,7 +21754,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21783,7 +21811,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21840,7 +21868,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21897,7 +21925,7 @@
         <v>44732</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21954,7 +21982,7 @@
         <v>44739</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22011,7 +22039,7 @@
         <v>44740</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22068,7 +22096,7 @@
         <v>44742</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22125,7 +22153,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22182,7 +22210,7 @@
         <v>44743</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22239,7 +22267,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22296,7 +22324,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22353,7 +22381,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22410,7 +22438,7 @@
         <v>44744</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22467,7 +22495,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22524,7 +22552,7 @@
         <v>44746</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22581,7 +22609,7 @@
         <v>44749</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22638,7 +22666,7 @@
         <v>44763</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22695,7 +22723,7 @@
         <v>44767</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22752,7 +22780,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22809,7 +22837,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22866,7 +22894,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22923,7 +22951,7 @@
         <v>44774</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22980,7 +23008,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23037,7 +23065,7 @@
         <v>44796</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23094,7 +23122,7 @@
         <v>44804</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23151,7 +23179,7 @@
         <v>44813</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23208,7 +23236,7 @@
         <v>44816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23265,7 +23293,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23322,7 +23350,7 @@
         <v>44818</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23379,7 +23407,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23436,7 +23464,7 @@
         <v>44823</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23493,7 +23521,7 @@
         <v>44824</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23550,7 +23578,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23612,7 +23640,7 @@
         <v>44833</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23669,7 +23697,7 @@
         <v>44837</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23731,7 +23759,7 @@
         <v>44840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23788,7 +23816,7 @@
         <v>44841</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23845,7 +23873,7 @@
         <v>44843</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23902,7 +23930,7 @@
         <v>44846</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23964,7 +23992,7 @@
         <v>44847</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24021,7 +24049,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24078,7 +24106,7 @@
         <v>44853</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24140,7 +24168,7 @@
         <v>44855</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24197,7 +24225,7 @@
         <v>44858</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24254,7 +24282,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24311,7 +24339,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24373,7 +24401,7 @@
         <v>44876</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24430,7 +24458,7 @@
         <v>44879</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24492,7 +24520,7 @@
         <v>44888</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24549,7 +24577,7 @@
         <v>44889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24606,7 +24634,7 @@
         <v>44894</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24663,7 +24691,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24725,7 +24753,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24782,7 +24810,7 @@
         <v>44895</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24839,7 +24867,7 @@
         <v>44904</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24896,7 +24924,7 @@
         <v>44907</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24953,7 +24981,7 @@
         <v>44908</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25010,7 +25038,7 @@
         <v>44910</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25067,7 +25095,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25129,7 +25157,7 @@
         <v>44918</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25186,7 +25214,7 @@
         <v>44923</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25243,7 +25271,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25300,7 +25328,7 @@
         <v>44933</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25357,7 +25385,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25414,7 +25442,7 @@
         <v>44938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25471,7 +25499,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25528,7 +25556,7 @@
         <v>44945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25585,7 +25613,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25642,7 +25670,7 @@
         <v>44946</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25699,7 +25727,7 @@
         <v>44953</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25756,7 +25784,7 @@
         <v>44961</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25813,7 +25841,7 @@
         <v>44964</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25875,7 +25903,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25965,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +26022,7 @@
         <v>44984</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26079,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26136,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26193,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26250,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26307,7 @@
         <v>44985</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26364,7 @@
         <v>44988</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26398,7 +26426,7 @@
         <v>44991</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26455,7 +26483,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26512,7 +26540,7 @@
         <v>44992</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26569,7 +26597,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26626,7 +26654,7 @@
         <v>44994</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26683,7 +26711,7 @@
         <v>44995</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26740,7 +26768,7 @@
         <v>44997</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26797,7 +26825,7 @@
         <v>44998</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26854,7 +26882,7 @@
         <v>45000</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26911,7 +26939,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26968,7 +26996,7 @@
         <v>45009</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27025,7 +27053,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27110,7 @@
         <v>45012</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27167,7 @@
         <v>45014</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27224,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27281,7 @@
         <v>45015</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27315,7 +27343,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27377,7 +27405,7 @@
         <v>45016</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27434,7 +27462,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27491,7 +27519,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27553,7 +27581,7 @@
         <v>45022</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27610,7 +27638,7 @@
         <v>45027</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27667,7 +27695,7 @@
         <v>45028</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27724,7 +27752,7 @@
         <v>45035</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27781,7 +27809,7 @@
         <v>45049</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27838,7 +27866,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27895,7 +27923,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27952,7 +27980,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28009,7 +28037,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28066,7 +28094,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28123,7 +28151,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28185,7 +28213,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28242,7 +28270,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28299,7 +28327,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28356,7 +28384,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28413,7 +28441,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28475,7 +28503,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28537,7 +28565,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28599,7 +28627,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28661,7 +28689,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28723,7 +28751,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28780,7 +28808,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28837,7 +28865,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28894,7 +28922,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28951,7 +28979,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29036,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29065,7 +29093,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29122,7 +29150,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29179,7 +29207,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29236,7 +29264,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29293,7 +29321,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29350,7 +29378,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29407,7 +29435,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29464,7 +29492,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29521,7 +29549,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29578,7 +29606,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29635,7 +29663,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29692,7 +29720,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29754,7 +29782,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29816,7 +29844,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29878,7 +29906,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29940,7 +29968,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29997,7 +30025,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30054,7 +30082,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30111,7 +30139,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30168,7 +30196,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30230,7 +30258,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30292,7 +30320,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30354,7 +30382,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30416,7 +30444,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30478,7 +30506,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30540,7 +30568,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30602,7 +30630,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30664,7 +30692,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30726,7 +30754,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30783,7 +30811,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30845,7 +30873,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30907,7 +30935,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30969,7 +30997,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31026,7 +31054,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31083,7 +31111,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31140,7 +31168,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31197,7 +31225,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31254,7 +31282,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31311,7 +31339,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31368,7 +31396,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31425,7 +31453,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31482,7 +31510,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31544,7 +31572,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31601,7 +31629,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31658,7 +31686,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31715,7 +31743,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31772,7 +31800,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31829,7 +31857,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31886,7 +31914,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31943,7 +31971,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32000,7 +32028,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32057,7 +32085,7 @@
         <v>45182</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32119,7 +32147,7 @@
         <v>45183</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y528"/>
+  <dimension ref="A1:Y529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -723,6 +723,7 @@
 Grådådra
 Mindre blåvinge
 Sexfläckig bastardsvärmare
+Violettkantad guldvinge
 Ängsmetallvinge
 Åkerväddsantennmal
 Toppvaxskivling</t>
@@ -763,7 +764,7 @@
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +859,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +948,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1041,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,14 +1122,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 30682-2020</t>
+          <t>A 5490-2019</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44008</v>
+        <v>43489</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1146,517 +1147,519 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Åkerväddsantennmal
+Blanksvart trämyra
+Robust tickgnagare</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 5490-2019.xlsx", "A 5490-2019")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 5490-2019.png", "A 5490-2019")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 5490-2019.docx", "A 5490-2019")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 5490-2019.docx", "A 5490-2019")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 5490-2019.docx", "A 5490-2019")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 5490-2019.docx", "A 5490-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 23366-2019</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>43593</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Hedblomster
+Svartfläckig blåvinge
+Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 23366-2019.xlsx", "A 23366-2019")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 23366-2019.png", "A 23366-2019")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 23366-2019.docx", "A 23366-2019")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 23366-2019.docx", "A 23366-2019")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 23366-2019.docx", "A 23366-2019")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 23366-2019.docx", "A 23366-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 30682-2020</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Hedblomster
 Stortapetserarbi
 Ängsmetallvinge</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 30682-2020.xlsx", "A 30682-2020")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 30682-2020.png", "A 30682-2020")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 30682-2020.docx", "A 30682-2020")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 30682-2020.docx", "A 30682-2020")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 30682-2020.docx", "A 30682-2020")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 30682-2020.docx", "A 30682-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 54542-2021</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44473</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KRISTIANSTAD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>9.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Havsörn
 Tallticka
 Grovticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 54542-2021.xlsx", "A 54542-2021")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 54542-2021.png", "A 54542-2021")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 54542-2021.docx", "A 54542-2021")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 54542-2021.docx", "A 54542-2021")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 54542-2021.docx", "A 54542-2021")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 54542-2021.docx", "A 54542-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 12576-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45000</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KRISTIANSTAD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>5.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Bukspolsnäcka
 Lamellsnäcka
 Tandsnäcka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 12576-2023.xlsx", "A 12576-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 12576-2023.png", "A 12576-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 12576-2023.docx", "A 12576-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 12576-2023.docx", "A 12576-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 12576-2023.docx", "A 12576-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 12576-2023.docx", "A 12576-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 5490-2019</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>43489</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KRISTIANSTAD</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 15597-2019</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>43543</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Åkerväddsantennmal
-Blanksvart trämyra</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 5490-2019.xlsx", "A 5490-2019")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 5490-2019.png", "A 5490-2019")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 5490-2019.docx", "A 5490-2019")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 5490-2019.docx", "A 5490-2019")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 5490-2019.docx", "A 5490-2019")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 5490-2019.docx", "A 5490-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 15597-2019</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>43543</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KRISTIANSTAD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Liten stinksvamp
 Rutbläcksvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 15597-2019.xlsx", "A 15597-2019")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 15597-2019.png", "A 15597-2019")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 15597-2019.docx", "A 15597-2019")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 15597-2019.docx", "A 15597-2019")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 15597-2019.docx", "A 15597-2019")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 15597-2019.docx", "A 15597-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 23366-2019</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>43593</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KRISTIANSTAD</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Hedblomster
-Ängsmetallvinge</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/artfynd/A 23366-2019.xlsx", "A 23366-2019")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/kartor/A 23366-2019.png", "A 23366-2019")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomål/A 23366-2019.docx", "A 23366-2019")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/klagomålsmail/A 23366-2019.docx", "A 23366-2019")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsyn/A 23366-2019.docx", "A 23366-2019")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTIANSTAD/tillsynsmail/A 23366-2019.docx", "A 23366-2019")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1667,7 +1670,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1756,7 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1839,7 +1842,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1928,7 @@
         <v>44767</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2014,7 @@
         <v>44840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2097,7 +2100,7 @@
         <v>45016</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2183,7 +2186,7 @@
         <v>45128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2272,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2354,7 +2357,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2442,7 @@
         <v>43469</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2527,7 @@
         <v>43684</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2612,7 @@
         <v>43717</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2697,7 @@
         <v>44008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2787,7 @@
         <v>44076</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2872,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,7 +2957,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3039,7 +3042,7 @@
         <v>44328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3124,7 +3127,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3209,7 +3212,7 @@
         <v>44634</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3294,7 +3297,7 @@
         <v>44686</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3379,7 +3382,7 @@
         <v>44825</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3464,7 +3467,7 @@
         <v>44826</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3549,7 +3552,7 @@
         <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3634,7 +3637,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3719,7 +3722,7 @@
         <v>44918</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3807,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3889,7 +3892,7 @@
         <v>45093</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3979,7 +3982,7 @@
         <v>45107</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4064,7 +4067,7 @@
         <v>43333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4121,7 +4124,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4178,7 +4181,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4235,7 +4238,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4297,7 +4300,7 @@
         <v>43366</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4354,7 +4357,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4411,7 +4414,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4468,7 +4471,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4525,7 +4528,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4582,7 +4585,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4639,7 +4642,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4696,7 +4699,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4753,7 +4756,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4810,7 +4813,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4867,7 +4870,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4924,7 +4927,7 @@
         <v>43406</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4981,7 +4984,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5038,7 +5041,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5095,7 +5098,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5152,7 +5155,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5209,7 +5212,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5266,7 +5269,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5323,7 +5326,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5380,7 +5383,7 @@
         <v>43427</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5437,7 +5440,7 @@
         <v>43431</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5494,7 +5497,7 @@
         <v>43434</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5551,7 +5554,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5608,7 +5611,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5665,7 +5668,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5722,7 +5725,7 @@
         <v>43441</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5779,7 +5782,7 @@
         <v>43445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5836,7 +5839,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5893,7 +5896,7 @@
         <v>43447</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5950,7 +5953,7 @@
         <v>43452</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6007,7 +6010,7 @@
         <v>43453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6064,7 +6067,7 @@
         <v>43455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6121,7 +6124,7 @@
         <v>43469</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6178,7 +6181,7 @@
         <v>43469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6235,7 +6238,7 @@
         <v>43474</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6292,7 +6295,7 @@
         <v>43476</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6349,7 +6352,7 @@
         <v>43480</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6406,7 +6409,7 @@
         <v>43481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6463,7 +6466,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6520,7 +6523,7 @@
         <v>43483</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6577,7 +6580,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6639,7 +6642,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6701,7 +6704,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6758,7 +6761,7 @@
         <v>43493</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6815,7 +6818,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6872,7 +6875,7 @@
         <v>43508</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6929,7 +6932,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6986,7 +6989,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7043,7 +7046,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7100,7 +7103,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7157,7 +7160,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7214,7 +7217,7 @@
         <v>43515</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7271,7 +7274,7 @@
         <v>43516</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7328,7 +7331,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7385,7 +7388,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7442,7 +7445,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7504,7 +7507,7 @@
         <v>43543</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7566,7 +7569,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7623,7 +7626,7 @@
         <v>43545</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7680,7 +7683,7 @@
         <v>43550</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7737,7 +7740,7 @@
         <v>43551</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7794,7 +7797,7 @@
         <v>43557</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7851,7 +7854,7 @@
         <v>43559</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7908,7 +7911,7 @@
         <v>43564</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7965,7 +7968,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8022,7 +8025,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8079,7 +8082,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8136,7 +8139,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8193,7 +8196,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8250,7 +8253,7 @@
         <v>43572</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8307,7 +8310,7 @@
         <v>43580</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8364,7 +8367,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8421,7 +8424,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8478,7 +8481,7 @@
         <v>43607</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8535,7 +8538,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8592,7 +8595,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8649,7 +8652,7 @@
         <v>43648</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8706,7 +8709,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8763,7 +8766,7 @@
         <v>43669</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8820,7 +8823,7 @@
         <v>43670</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8877,7 +8880,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8934,7 +8937,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8991,7 +8994,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9048,7 +9051,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9105,7 +9108,7 @@
         <v>43693</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9162,7 +9165,7 @@
         <v>43700</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9219,7 +9222,7 @@
         <v>43712</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9276,7 +9279,7 @@
         <v>43713</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9333,7 +9336,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9390,7 +9393,7 @@
         <v>43718</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9447,7 +9450,7 @@
         <v>43719</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9504,7 +9507,7 @@
         <v>43724</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9561,7 +9564,7 @@
         <v>43739</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9623,7 +9626,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9685,7 +9688,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9747,7 +9750,7 @@
         <v>43747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9809,7 +9812,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9866,7 +9869,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9923,7 +9926,7 @@
         <v>43795</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9980,7 +9983,7 @@
         <v>43801</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10037,7 +10040,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10094,7 +10097,7 @@
         <v>43804</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10151,7 +10154,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10208,7 +10211,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10265,7 +10268,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10322,7 +10325,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10379,7 +10382,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10441,7 +10444,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10498,7 +10501,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10555,7 +10558,7 @@
         <v>43840</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10612,7 +10615,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10669,7 +10672,7 @@
         <v>43845</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10726,7 +10729,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10783,7 +10786,7 @@
         <v>43865</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10840,7 +10843,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10897,7 +10900,7 @@
         <v>43868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10959,7 +10962,7 @@
         <v>43872</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11016,7 +11019,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11073,7 +11076,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11135,7 +11138,7 @@
         <v>43881</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11192,7 +11195,7 @@
         <v>43888</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11249,7 +11252,7 @@
         <v>43915</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11306,7 +11309,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11363,7 +11366,7 @@
         <v>43930</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11420,7 +11423,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11477,7 +11480,7 @@
         <v>43955</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11534,7 +11537,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11591,7 +11594,7 @@
         <v>43977</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11648,7 +11651,7 @@
         <v>43980</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11710,7 +11713,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11767,7 +11770,7 @@
         <v>43991</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11824,7 +11827,7 @@
         <v>43997</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11881,7 +11884,7 @@
         <v>44004</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11938,7 +11941,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11998,7 @@
         <v>44019</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12052,7 +12055,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12109,7 +12112,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12171,7 +12174,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12228,7 +12231,7 @@
         <v>44022</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12285,7 +12288,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12347,7 +12350,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12409,7 +12412,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12471,7 +12474,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12533,7 +12536,7 @@
         <v>44026</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12590,7 +12593,7 @@
         <v>44033</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12647,7 +12650,7 @@
         <v>44042</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12704,7 +12707,7 @@
         <v>44054</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12761,7 +12764,7 @@
         <v>44074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12818,7 +12821,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12875,7 +12878,7 @@
         <v>44077</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12932,7 +12935,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12989,7 +12992,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13046,7 +13049,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13103,7 +13106,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13160,7 +13163,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13217,7 +13220,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13274,7 +13277,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13331,7 +13334,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13388,7 +13391,7 @@
         <v>44112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13445,7 +13448,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13502,7 +13505,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13559,7 +13562,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13616,7 +13619,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13673,7 +13676,7 @@
         <v>44141</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13730,7 +13733,7 @@
         <v>44144</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13787,7 +13790,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13847,7 @@
         <v>44146</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13904,7 @@
         <v>44159</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13961,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14015,7 +14018,7 @@
         <v>44161</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14072,7 +14075,7 @@
         <v>44167</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14129,7 +14132,7 @@
         <v>44173</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14186,7 +14189,7 @@
         <v>44180</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14243,7 +14246,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14305,7 +14308,7 @@
         <v>44183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14367,7 +14370,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14424,7 +14427,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14481,7 +14484,7 @@
         <v>44186</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14538,7 +14541,7 @@
         <v>44193</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14595,7 +14598,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14652,7 +14655,7 @@
         <v>44199</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14709,7 +14712,7 @@
         <v>44211</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14766,7 +14769,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14823,7 +14826,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14880,7 +14883,7 @@
         <v>44237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14937,7 +14940,7 @@
         <v>44238</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14994,7 +14997,7 @@
         <v>44249</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15051,7 +15054,7 @@
         <v>44256</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15108,7 +15111,7 @@
         <v>44272</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15165,7 +15168,7 @@
         <v>44274</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15225,7 @@
         <v>44286</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15282,7 @@
         <v>44288</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15339,7 @@
         <v>44298</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15396,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15458,7 @@
         <v>44326</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15512,7 +15515,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15569,7 +15572,7 @@
         <v>44328</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15626,7 +15629,7 @@
         <v>44341</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15688,7 +15691,7 @@
         <v>44348</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15745,7 +15748,7 @@
         <v>44349</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15802,7 +15805,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15859,7 +15862,7 @@
         <v>44354</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15916,7 +15919,7 @@
         <v>44362</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15973,7 +15976,7 @@
         <v>44365</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16030,7 +16033,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16095,7 @@
         <v>44368</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16152,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16209,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16268,7 +16271,7 @@
         <v>44384</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16330,7 +16333,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16392,7 +16395,7 @@
         <v>44390</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16454,7 +16457,7 @@
         <v>44399</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16511,7 +16514,7 @@
         <v>44410</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16568,7 +16571,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16625,7 +16628,7 @@
         <v>44412</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16682,7 +16685,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16739,7 +16742,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16796,7 +16799,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16853,7 +16856,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16915,7 +16918,7 @@
         <v>44419</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16972,7 +16975,7 @@
         <v>44428</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17029,7 +17032,7 @@
         <v>44433</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17091,7 +17094,7 @@
         <v>44434</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17156,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17213,7 @@
         <v>44435</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17270,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17329,7 +17332,7 @@
         <v>44442</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17391,7 +17394,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17448,7 +17451,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17505,7 +17508,7 @@
         <v>44449</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17567,7 +17570,7 @@
         <v>44452</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17624,7 +17627,7 @@
         <v>44455</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17681,7 +17684,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17738,7 +17741,7 @@
         <v>44460</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17815,7 +17818,7 @@
         <v>44461</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17872,7 +17875,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17929,7 +17932,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17986,7 +17989,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18043,7 +18046,7 @@
         <v>44463</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18100,7 +18103,7 @@
         <v>44468</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18157,7 +18160,7 @@
         <v>44470</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18214,7 +18217,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18276,7 +18279,7 @@
         <v>44480</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18338,7 +18341,7 @@
         <v>44483</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18395,7 +18398,7 @@
         <v>44487</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18452,7 +18455,7 @@
         <v>44491</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18509,7 +18512,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18566,7 +18569,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18623,7 +18626,7 @@
         <v>44497</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18680,7 +18683,7 @@
         <v>44503</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18742,7 +18745,7 @@
         <v>44510</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18799,7 +18802,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18856,7 +18859,7 @@
         <v>44513</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18913,7 +18916,7 @@
         <v>44522</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18970,7 +18973,7 @@
         <v>44533</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19027,7 +19030,7 @@
         <v>44536</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19084,7 +19087,7 @@
         <v>44537</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19141,7 +19144,7 @@
         <v>44540</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19198,7 +19201,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19255,7 +19258,7 @@
         <v>44558</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19312,7 +19315,7 @@
         <v>44560</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19369,7 +19372,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19426,7 +19429,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19483,7 +19486,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19540,7 +19543,7 @@
         <v>44574</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19597,7 +19600,7 @@
         <v>44575</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19659,7 +19662,7 @@
         <v>44579</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19716,7 +19719,7 @@
         <v>44587</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19778,7 +19781,7 @@
         <v>44592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19835,7 +19838,7 @@
         <v>44595</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19892,7 +19895,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19949,7 +19952,7 @@
         <v>44596</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20006,7 +20009,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20063,7 +20066,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20120,7 +20123,7 @@
         <v>44607</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20177,7 +20180,7 @@
         <v>44608</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20234,7 +20237,7 @@
         <v>44609</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20296,7 +20299,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20353,7 +20356,7 @@
         <v>44613</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20410,7 +20413,7 @@
         <v>44622</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20467,7 +20470,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20524,7 +20527,7 @@
         <v>44627</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20581,7 +20584,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20638,7 +20641,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20695,7 +20698,7 @@
         <v>44628</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20752,7 +20755,7 @@
         <v>44629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20812,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20866,7 +20869,7 @@
         <v>44634</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20923,7 +20926,7 @@
         <v>44638</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20980,7 +20983,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21037,7 +21040,7 @@
         <v>44656</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21094,7 +21097,7 @@
         <v>44669</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21151,7 +21154,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21208,7 +21211,7 @@
         <v>44685</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21265,7 +21268,7 @@
         <v>44686</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21322,7 +21325,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21379,7 +21382,7 @@
         <v>44697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21436,7 +21439,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21493,7 +21496,7 @@
         <v>44705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21550,7 +21553,7 @@
         <v>44706</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21607,7 +21610,7 @@
         <v>44712</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21669,7 +21672,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21731,7 +21734,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21788,7 +21791,7 @@
         <v>44721</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21845,7 +21848,7 @@
         <v>44725</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21902,7 +21905,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21959,7 +21962,7 @@
         <v>44729</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22016,7 +22019,7 @@
         <v>44732</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22073,7 +22076,7 @@
         <v>44739</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22130,7 +22133,7 @@
         <v>44740</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22187,7 +22190,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22244,7 +22247,7 @@
         <v>44742</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22301,7 +22304,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22358,7 +22361,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22415,7 +22418,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22472,7 +22475,7 @@
         <v>44743</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22529,7 +22532,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22586,7 +22589,7 @@
         <v>44744</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22643,7 +22646,7 @@
         <v>44746</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22700,7 +22703,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22757,7 +22760,7 @@
         <v>44763</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22814,7 +22817,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22871,7 +22874,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22928,7 +22931,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22985,7 +22988,7 @@
         <v>44767</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23042,7 +23045,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23099,7 +23102,7 @@
         <v>44774</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23156,7 +23159,7 @@
         <v>44796</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23213,7 +23216,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23270,7 +23273,7 @@
         <v>44813</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23327,7 +23330,7 @@
         <v>44816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23384,7 +23387,7 @@
         <v>44817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23441,7 +23444,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23498,7 +23501,7 @@
         <v>44818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23555,7 +23558,7 @@
         <v>44823</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23612,7 +23615,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23669,7 +23672,7 @@
         <v>44824</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23731,7 +23734,7 @@
         <v>44833</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23788,7 +23791,7 @@
         <v>44837</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23850,7 +23853,7 @@
         <v>44840</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23907,7 +23910,7 @@
         <v>44841</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23964,7 +23967,7 @@
         <v>44843</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24021,7 +24024,7 @@
         <v>44846</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24083,7 +24086,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24140,7 +24143,7 @@
         <v>44847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24197,7 +24200,7 @@
         <v>44853</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24259,7 +24262,7 @@
         <v>44855</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24316,7 +24319,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24373,7 +24376,7 @@
         <v>44858</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24430,7 +24433,7 @@
         <v>44872</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24492,7 +24495,7 @@
         <v>44876</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24549,7 +24552,7 @@
         <v>44879</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24611,7 +24614,7 @@
         <v>44888</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24668,7 +24671,7 @@
         <v>44889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24725,7 +24728,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24782,7 +24785,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24844,7 +24847,7 @@
         <v>44894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24901,7 +24904,7 @@
         <v>44895</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24958,7 +24961,7 @@
         <v>44904</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25015,7 +25018,7 @@
         <v>44907</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25072,7 +25075,7 @@
         <v>44908</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25129,7 +25132,7 @@
         <v>44910</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25186,7 +25189,7 @@
         <v>44915</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25248,7 +25251,7 @@
         <v>44918</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25305,7 +25308,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25362,7 +25365,7 @@
         <v>44923</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25419,7 +25422,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25476,7 +25479,7 @@
         <v>44933</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25533,7 +25536,7 @@
         <v>44938</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25590,7 +25593,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25647,7 +25650,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25704,7 +25707,7 @@
         <v>44945</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25761,7 +25764,7 @@
         <v>44946</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25818,7 +25821,7 @@
         <v>44953</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25875,7 +25878,7 @@
         <v>44961</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25932,7 +25935,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25994,7 +25997,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26056,7 +26059,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26113,7 +26116,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26170,7 +26173,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26227,7 +26230,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26284,7 +26287,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26341,7 +26344,7 @@
         <v>44984</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26398,7 +26401,7 @@
         <v>44985</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26455,7 +26458,7 @@
         <v>44988</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26517,7 +26520,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26574,7 +26577,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26631,7 +26634,7 @@
         <v>44992</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26688,7 +26691,7 @@
         <v>44993</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26745,7 +26748,7 @@
         <v>44994</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26802,7 +26805,7 @@
         <v>44995</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26859,7 +26862,7 @@
         <v>44997</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26916,7 +26919,7 @@
         <v>44998</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26973,7 +26976,7 @@
         <v>45000</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27030,7 +27033,7 @@
         <v>45002</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27087,7 +27090,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27144,7 +27147,7 @@
         <v>45009</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27201,7 +27204,7 @@
         <v>45012</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27258,7 +27261,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27315,7 +27318,7 @@
         <v>45014</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27372,7 +27375,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27434,7 +27437,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27496,7 +27499,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27553,7 +27556,7 @@
         <v>45016</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27610,7 +27613,7 @@
         <v>45020</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27672,7 +27675,7 @@
         <v>45022</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27729,7 +27732,7 @@
         <v>45027</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27786,7 +27789,7 @@
         <v>45028</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27843,7 +27846,7 @@
         <v>45035</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27900,7 +27903,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27957,7 +27960,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28014,7 +28017,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28071,7 +28074,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28128,7 +28131,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28185,7 +28188,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28247,7 +28250,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28304,7 +28307,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28361,7 +28364,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28418,7 +28421,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28475,7 +28478,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28537,7 +28540,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28599,7 +28602,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28661,7 +28664,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28723,7 +28726,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28785,7 +28788,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28842,7 +28845,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28899,7 +28902,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28956,7 +28959,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29013,7 +29016,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29070,7 +29073,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29127,7 +29130,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29184,7 +29187,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29241,7 +29244,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29298,7 +29301,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29355,7 +29358,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29415,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29469,7 +29472,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29526,7 +29529,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29583,7 +29586,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29640,7 +29643,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29697,7 +29700,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29754,7 +29757,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29819,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29878,7 +29881,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29940,7 +29943,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30002,7 +30005,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30059,7 +30062,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30116,7 +30119,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30173,7 +30176,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30230,7 +30233,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30292,7 +30295,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30354,7 +30357,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30416,7 +30419,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30478,7 +30481,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30540,7 +30543,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30602,7 +30605,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30664,7 +30667,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30726,7 +30729,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30788,7 +30791,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30845,7 +30848,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30907,7 +30910,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30969,7 +30972,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31031,7 +31034,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31088,7 +31091,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31145,7 +31148,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31202,7 +31205,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31259,7 +31262,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31316,7 +31319,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31373,7 +31376,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31430,7 +31433,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31487,7 +31490,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31544,7 +31547,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31606,7 +31609,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31663,7 +31666,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31720,7 +31723,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31777,7 +31780,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31834,7 +31837,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31891,7 +31894,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31948,7 +31951,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32005,7 +32008,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32062,7 +32065,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32119,7 +32122,7 @@
         <v>45182</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32171,7 +32174,7 @@
       </c>
       <c r="R527" s="2" t="inlineStr"/>
     </row>
-    <row r="528">
+    <row r="528" ht="15" customHeight="1">
       <c r="A528" t="inlineStr">
         <is>
           <t>A 43321-2023</t>
@@ -32181,7 +32184,7 @@
         <v>45183</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32227,6 +32230,63 @@
         <v>0</v>
       </c>
       <c r="R528" s="2" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>A 43871-2023</t>
+        </is>
+      </c>
+      <c r="B529" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C529" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N529" t="n">
+        <v>0</v>
+      </c>
+      <c r="O529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R529" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y529"/>
+  <dimension ref="A1:Y531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43489</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43543</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44767</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45016</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43469</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43684</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>43717</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>44008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44076</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44634</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44686</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44825</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44826</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44918</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45093</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>45107</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43366</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>43406</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43427</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43431</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43434</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43441</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>43445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>43447</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43452</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43469</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43474</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43476</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43480</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43483</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43493</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43508</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43515</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43516</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43543</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43545</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43550</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43551</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43557</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43559</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43564</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43572</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43580</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43607</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43648</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43669</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43670</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43693</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43700</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43712</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43713</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43718</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43719</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43724</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43739</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43795</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43801</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43804</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43840</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43845</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43865</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43872</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43881</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43888</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43915</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43930</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43955</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43977</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43980</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>43991</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43997</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44004</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44019</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44022</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44026</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44033</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44042</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44054</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44077</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44141</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44144</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>44146</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44159</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44161</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44167</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44173</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44180</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44186</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44193</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44199</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44211</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44238</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44249</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44256</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44272</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44274</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44286</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44288</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44298</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44326</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44328</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44341</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44348</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44349</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44354</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>44362</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>44365</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44368</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44384</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>44390</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44399</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44410</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44412</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44419</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44428</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44433</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>44434</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44435</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44442</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44449</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44452</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44455</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44460</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44461</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44463</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44468</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44470</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44480</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44483</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44487</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44491</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44497</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>44503</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44510</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44513</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44522</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44533</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44536</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44537</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44540</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44558</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44560</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44574</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44575</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44579</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44587</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44595</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44596</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20009,7 +20009,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44607</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44608</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44609</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44613</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44622</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44627</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44628</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44634</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44638</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44656</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44669</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44685</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44686</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44706</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44712</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44721</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44725</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44729</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44732</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44739</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44740</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>44742</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44743</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44744</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44746</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44763</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44767</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44774</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44796</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44813</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44823</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44824</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>44833</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44837</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44840</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44841</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44843</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24024,7 +24024,7 @@
         <v>44846</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44853</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44855</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44858</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44872</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44876</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44879</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>44888</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>44889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44895</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44904</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44907</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>44908</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44910</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44915</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44918</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>44923</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>44933</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>44938</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>44945</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>44946</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44953</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>44961</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44984</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44985</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44988</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>44992</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>44993</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44994</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44995</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44997</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>44998</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45000</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>45002</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45009</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45012</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45014</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>45016</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>45020</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45022</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45027</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45028</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45035</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45182</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45183</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
       </c>
       <c r="R528" s="2" t="inlineStr"/>
     </row>
-    <row r="529">
+    <row r="529" ht="15" customHeight="1">
       <c r="A529" t="inlineStr">
         <is>
           <t>A 43871-2023</t>
@@ -32241,7 +32241,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32287,6 +32287,120 @@
         <v>0</v>
       </c>
       <c r="R529" s="2" t="inlineStr"/>
+    </row>
+    <row r="530" ht="15" customHeight="1">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>A 44553-2023</t>
+        </is>
+      </c>
+      <c r="B530" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C530" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N530" t="n">
+        <v>0</v>
+      </c>
+      <c r="O530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R530" s="2" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>A 44550-2023</t>
+        </is>
+      </c>
+      <c r="B531" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C531" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G531" t="n">
+        <v>2</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N531" t="n">
+        <v>0</v>
+      </c>
+      <c r="O531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R531" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y531"/>
+  <dimension ref="A1:Y535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43489</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43543</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44767</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45016</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43469</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43684</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>43717</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>44008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44076</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44634</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44686</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44825</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44826</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44918</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45093</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>45107</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43335</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43366</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>43406</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43427</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43431</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43434</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43440</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43441</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>43445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>43447</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43452</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43469</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43474</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43476</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43480</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43483</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43493</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43493</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43508</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43514</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43515</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43516</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43529</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43543</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43543</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43545</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43550</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43551</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43557</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43559</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43564</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43566</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43572</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43580</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43607</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43648</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43669</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43670</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43682</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43692</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43693</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43700</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43712</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>43713</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>43717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43718</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43719</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43724</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>43739</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43795</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43801</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43804</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43804</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43811</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>43816</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43840</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43845</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43845</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43865</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43868</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43872</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43878</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43881</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43888</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43915</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43930</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43955</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43977</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43977</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43980</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>43991</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43997</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44004</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44019</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44022</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>44025</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44026</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44033</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44042</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44054</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44077</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44084</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44095</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44112</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44133</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>44141</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44141</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44144</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44146</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>44146</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44159</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44161</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44161</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44167</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44173</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44180</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44183</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44186</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44186</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44193</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44199</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44199</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44211</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44238</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44249</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44256</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44272</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44274</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>44286</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44288</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44298</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44315</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44326</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44328</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44341</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44348</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44349</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>44354</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44354</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>44362</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>44365</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>44368</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44368</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44384</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44384</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44390</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>44390</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44399</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44410</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44412</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44412</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44417</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44419</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44419</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>44428</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44433</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>44434</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44435</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44435</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44442</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44442</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>44449</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44449</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44452</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44455</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44460</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44460</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44461</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44463</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44468</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44470</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44480</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44483</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44487</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44491</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44497</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>44497</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>44503</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44510</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44513</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44513</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44522</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44533</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44536</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44537</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44540</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44558</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44558</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44560</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44572</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44574</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44575</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44579</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44587</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44595</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44596</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44596</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20009,7 +20009,7 @@
         <v>44607</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44607</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44608</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44609</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44610</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44613</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44622</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44627</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44627</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44628</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44628</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44634</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44634</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44638</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44656</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44669</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44685</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44686</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44705</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44706</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44712</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44721</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44725</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44729</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44729</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44732</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44739</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44740</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>44742</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44743</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44743</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44744</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44746</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>44763</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44767</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44767</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44774</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44774</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44796</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44804</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44813</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44818</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44823</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44824</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44824</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>44833</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44837</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44840</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44841</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44843</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24024,7 +24024,7 @@
         <v>44846</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44847</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>44847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44853</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44855</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44858</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44858</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44872</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44876</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44879</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>44888</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>44889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44894</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44895</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44904</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44907</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>44908</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>44910</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>44915</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>44918</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>44923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>44923</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>44933</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>44933</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>44938</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>44945</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>44946</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>44953</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>44961</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>44964</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44984</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44984</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44985</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44988</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>44991</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>44992</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>44993</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44994</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44995</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44997</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>44998</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45000</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>45002</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45009</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45009</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45012</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45014</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45014</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45015</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45016</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>45016</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>45020</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45022</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45027</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45028</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45035</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45049</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45050</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45054</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>45077</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>45079</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>45089</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>45090</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>45096</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45098</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45105</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45182</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45183</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45189</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32345,17 +32345,17 @@
       </c>
       <c r="R530" s="2" t="inlineStr"/>
     </row>
-    <row r="531">
+    <row r="531" ht="15" customHeight="1">
       <c r="A531" t="inlineStr">
         <is>
-          <t>A 44550-2023</t>
+          <t>A 44443-2023</t>
         </is>
       </c>
       <c r="B531" s="1" t="n">
         <v>45189</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32367,40 +32367,278 @@
           <t>KRISTIANSTAD</t>
         </is>
       </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G531" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0</v>
+      </c>
+      <c r="K531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N531" t="n">
+        <v>0</v>
+      </c>
+      <c r="O531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R531" s="2" t="inlineStr"/>
+    </row>
+    <row r="532" ht="15" customHeight="1">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>A 44550-2023</t>
+        </is>
+      </c>
+      <c r="B532" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C532" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
         <v>2</v>
       </c>
-      <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="n">
-        <v>0</v>
-      </c>
-      <c r="J531" t="n">
-        <v>0</v>
-      </c>
-      <c r="K531" t="n">
-        <v>0</v>
-      </c>
-      <c r="L531" t="n">
-        <v>0</v>
-      </c>
-      <c r="M531" t="n">
-        <v>0</v>
-      </c>
-      <c r="N531" t="n">
-        <v>0</v>
-      </c>
-      <c r="O531" t="n">
-        <v>0</v>
-      </c>
-      <c r="P531" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q531" t="n">
-        <v>0</v>
-      </c>
-      <c r="R531" s="2" t="inlineStr"/>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N532" t="n">
+        <v>0</v>
+      </c>
+      <c r="O532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R532" s="2" t="inlineStr"/>
+    </row>
+    <row r="533" ht="15" customHeight="1">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>A 44579-2023</t>
+        </is>
+      </c>
+      <c r="B533" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C533" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N533" t="n">
+        <v>0</v>
+      </c>
+      <c r="O533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R533" s="2" t="inlineStr"/>
+    </row>
+    <row r="534" ht="15" customHeight="1">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>A 44585-2023</t>
+        </is>
+      </c>
+      <c r="B534" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C534" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N534" t="n">
+        <v>0</v>
+      </c>
+      <c r="O534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R534" s="2" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>A 44440-2023</t>
+        </is>
+      </c>
+      <c r="B535" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C535" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>KRISTIANSTAD</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0</v>
+      </c>
+      <c r="K535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N535" t="n">
+        <v>0</v>
+      </c>
+      <c r="O535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R535" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43489</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43543</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44767</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45016</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43469</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43684</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>43717</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>44008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44076</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44634</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44686</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44825</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44826</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44918</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45093</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>45105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43360</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43366</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43427</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43431</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43469</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43476</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43480</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43483</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43493</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43493</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43508</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43508</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43516</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43543</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43545</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43559</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43566</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43572</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43607</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43648</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43648</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43669</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43670</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43682</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43689</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43692</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43693</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43700</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43712</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43713</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43717</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43718</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43719</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43739</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43747</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43775</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43795</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43801</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43804</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43804</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43812</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43840</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43845</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43865</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43872</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43881</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43888</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43915</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43930</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43955</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43977</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43977</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43980</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43997</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44004</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44022</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44022</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44025</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44026</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44033</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44042</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44054</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44076</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44084</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44112</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44141</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44141</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44144</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44146</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44146</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44159</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44161</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44161</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44167</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44173</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44180</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44183</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44186</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44186</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44199</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44199</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44211</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44237</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44238</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44249</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44256</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44272</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44274</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44286</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44288</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44298</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44326</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44328</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44328</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44341</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44348</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44349</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44354</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44362</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44365</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44368</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44368</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44378</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44384</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44384</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44390</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44390</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44399</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44410</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44412</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44412</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44417</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44419</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44419</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44428</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44433</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44434</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44435</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44435</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44442</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44442</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44449</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44449</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44452</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44455</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44460</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44460</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44461</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44463</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44463</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44468</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44470</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44476</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44480</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>44483</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>44487</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>44491</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44497</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44497</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44503</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44510</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44513</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44513</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44522</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44533</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44536</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44537</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44540</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44558</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44558</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44560</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44572</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44574</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44575</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44579</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44587</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>44592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>44595</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44596</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44596</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44607</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44607</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>44608</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44609</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44613</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44627</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44627</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44628</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44628</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44634</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44634</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44638</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44655</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44656</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44669</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44670</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44685</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44686</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>44694</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>44705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44705</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44712</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44720</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>44721</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>44725</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>44729</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>44729</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>44732</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44739</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44740</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44742</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44742</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44743</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44743</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44744</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44744</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>44746</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>44749</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44763</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44767</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44767</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44774</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44774</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44796</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44804</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44813</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44816</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44817</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44818</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44823</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44824</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44824</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44833</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44837</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44840</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44841</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44843</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44846</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44847</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44853</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44855</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>44858</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44858</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44872</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44876</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44879</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44888</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>44894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>44895</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>44904</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>44907</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44910</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44915</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44918</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44923</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44923</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44933</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44933</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44938</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44942</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44945</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44945</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44946</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44953</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44961</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>44964</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44984</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44984</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44985</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44988</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44991</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44992</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44993</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44994</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44995</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44997</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         <v>44998</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>45000</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45002</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45009</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>45009</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45012</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45014</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45014</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45015</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>45016</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45016</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45020</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45022</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45028</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45035</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45049</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45050</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45054</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>45069</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45072</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>45077</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>45079</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45083</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45085</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45089</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45090</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45096</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45098</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45182</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45183</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32326,7 +32326,7 @@
         <v>45189</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32383,7 +32383,7 @@
         <v>45189</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>45189</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45189</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45189</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45189</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45197</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45197</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45197</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45198</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43489</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43543</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44767</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45016</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43469</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43684</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>43717</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>44008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44076</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44634</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44686</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44825</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44826</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44918</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45093</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>45105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43360</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43366</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43427</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43431</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43469</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43476</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43480</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43483</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43493</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43493</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43508</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43508</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43516</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43543</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43545</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43559</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43566</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43572</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43607</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43648</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43648</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43669</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43670</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43682</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43689</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43692</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43693</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43700</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43712</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43713</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43717</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43718</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43719</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43739</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43747</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43775</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43795</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43801</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43804</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43804</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43812</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43840</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43845</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43865</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43872</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43881</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43888</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43915</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43930</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43955</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43977</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43977</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43980</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43997</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44004</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44022</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44022</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44025</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44026</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44033</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44042</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44054</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44076</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44084</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44112</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44141</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44141</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44144</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44146</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44146</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44159</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44161</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44161</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44167</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44173</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44180</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44183</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44186</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44186</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44199</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44199</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44211</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44237</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44238</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44249</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44256</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44272</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44274</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44286</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44288</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44298</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44326</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44328</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44328</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44341</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44348</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44349</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44354</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44362</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44365</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44368</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44368</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44378</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44384</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44384</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44390</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44390</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44399</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44410</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44412</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44412</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44417</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44419</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44419</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44428</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44433</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44434</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44435</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44435</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44442</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44442</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44449</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44449</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44452</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44455</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44460</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44460</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44461</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44463</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44463</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44468</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44470</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44476</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44480</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>44483</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>44487</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>44491</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44497</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44497</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44503</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44510</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44513</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44513</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44522</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44533</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44536</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44537</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44540</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44558</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44558</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44560</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44572</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44574</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44575</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44579</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44587</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>44592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>44595</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44596</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44596</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44607</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44607</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>44608</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44609</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44613</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44627</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44627</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44628</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44628</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44634</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44634</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44638</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44655</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44656</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44669</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44670</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44685</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44686</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>44694</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>44705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44705</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44712</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44720</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>44721</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>44725</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>44729</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>44729</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>44732</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44739</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44740</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44742</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44742</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44743</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44743</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44744</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44744</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>44746</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>44749</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44763</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44767</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44767</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44774</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44774</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44796</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44804</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44813</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44816</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44817</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44818</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44823</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44824</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44824</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44833</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44837</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44840</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44841</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44843</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44846</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44847</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44853</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44855</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>44858</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44858</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44872</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44876</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44879</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44888</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>44894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>44895</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>44904</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>44907</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44910</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44915</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44918</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44923</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44923</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44933</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44933</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44938</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44942</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44945</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44945</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44946</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44953</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44961</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>44964</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44984</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44984</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44985</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44988</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44991</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44992</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44993</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44994</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44995</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44997</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         <v>44998</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>45000</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45002</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45009</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>45009</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45012</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45014</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45014</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45015</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>45016</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45016</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45020</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45022</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45028</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45035</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45049</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45050</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45054</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>45069</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45072</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>45077</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>45079</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45083</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45085</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45089</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45090</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45096</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45098</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45182</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45183</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32326,7 +32326,7 @@
         <v>45189</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32383,7 +32383,7 @@
         <v>45189</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>45189</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45189</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45189</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45189</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45197</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45197</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45197</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45198</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43489</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43543</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44767</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45016</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43469</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43684</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>43717</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>44008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44076</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44634</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44686</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44825</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44826</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44918</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45093</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>45105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43360</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43366</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43427</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43431</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43469</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43476</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43480</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43483</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43493</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43493</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43508</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43508</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43516</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43543</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43545</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43559</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43566</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43572</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43607</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43648</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43648</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43669</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43670</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43682</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43689</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43692</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43693</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43700</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43712</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43713</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43717</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43718</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43719</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43739</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43747</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43775</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43795</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43801</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43804</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43804</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43812</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43840</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43845</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43865</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43872</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43881</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43888</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43915</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43930</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43955</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43977</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43977</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43980</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43997</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44004</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44022</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44022</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44025</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44026</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44033</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44042</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44054</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44076</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44084</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44112</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44141</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44141</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44144</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44146</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44146</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44159</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44161</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44161</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44167</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44173</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44180</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44183</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44186</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44186</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44199</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44199</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44211</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44237</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44238</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44249</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44256</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44272</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44274</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44286</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44288</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44298</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44326</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44328</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44328</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44341</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44348</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44349</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44354</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44362</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44365</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44368</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44368</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44378</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44384</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44384</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44390</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44390</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44399</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44410</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44412</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44412</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44417</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44419</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44419</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44428</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44433</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44434</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44435</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44435</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44442</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44442</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44449</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44449</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44452</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44455</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44460</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44460</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44461</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44463</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44463</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44468</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44470</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44476</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44480</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>44483</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>44487</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>44491</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44497</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44497</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44503</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44510</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44513</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44513</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44522</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44533</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44536</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44537</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44540</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44558</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44558</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44560</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44572</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44574</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44575</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44579</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44587</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>44592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>44595</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44596</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44596</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44607</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44607</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>44608</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44609</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44613</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44627</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44627</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44628</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44628</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44634</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44634</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44638</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44655</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44656</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44669</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44670</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44685</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44686</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>44694</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>44705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44705</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44712</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44720</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>44721</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>44725</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>44729</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>44729</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>44732</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44739</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44740</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44742</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44742</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44743</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44743</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44744</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44744</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>44746</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>44749</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44763</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44767</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44767</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44774</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44774</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44796</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44804</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44813</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44816</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44817</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44818</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44823</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44824</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44824</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44833</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44837</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44840</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44841</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44843</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44846</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44847</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44853</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44855</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>44858</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44858</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44872</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44876</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44879</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44888</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>44894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>44895</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>44904</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>44907</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44910</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44915</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44918</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44923</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44923</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44933</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44933</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44938</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44942</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44945</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44945</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44946</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44953</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44961</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>44964</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44984</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44984</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44985</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44988</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44991</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44992</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44993</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44994</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44995</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44997</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         <v>44998</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>45000</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45002</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45009</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>45009</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45012</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45014</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45014</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45015</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>45016</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45016</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45020</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45022</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45028</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45035</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45049</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45050</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45054</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>45069</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45072</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>45077</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>45079</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45083</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45085</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45089</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45090</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45096</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45098</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45182</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45183</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32326,7 +32326,7 @@
         <v>45189</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32383,7 +32383,7 @@
         <v>45189</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>45189</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45189</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45189</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45189</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45197</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45197</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45197</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45198</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>45098</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43489</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45000</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43543</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44494</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44767</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44840</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45016</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45128</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>43434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>43469</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43684</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>43717</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>44008</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44076</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44314</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>44327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44463</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44634</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44686</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>44825</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44826</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44918</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45049</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45093</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>45105</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>45107</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43335</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43360</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43366</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43406</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>43417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>43420</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43427</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43431</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43446</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43469</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43476</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43480</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43483</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43493</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43493</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43508</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43508</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43514</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43514</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43514</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43516</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43543</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43543</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43545</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>43545</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43557</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43559</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43564</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43565</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43566</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43566</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43572</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43598</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43607</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43648</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43648</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43669</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43670</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43682</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43689</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43692</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43693</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>43700</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>43712</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>43713</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43717</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43718</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43719</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43724</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43739</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43747</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43775</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43795</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43801</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43804</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43804</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43812</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43840</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43845</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43865</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43868</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43872</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>43878</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43881</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43888</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43915</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43930</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43955</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43977</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>43977</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>43980</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43997</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44004</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44022</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44022</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44022</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44025</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44025</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44026</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44033</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44042</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44054</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44076</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44084</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44112</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>44141</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>44141</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44141</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44144</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44146</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>44146</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44159</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44161</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44161</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44167</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44173</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44180</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44183</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44183</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44186</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44186</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44193</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44199</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44199</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44211</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44237</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44238</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44249</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44256</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44272</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44274</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44286</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44288</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44298</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>44315</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44326</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44328</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44328</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44341</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44348</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44349</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44354</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44354</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44362</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44365</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44368</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44368</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44378</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44384</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>44384</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44390</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44390</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44399</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44410</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44412</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44412</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44417</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44417</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44419</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44419</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44419</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44428</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44433</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44434</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44435</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44435</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44442</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44442</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44449</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>44449</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>44449</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44452</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44455</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44460</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44460</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44461</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44463</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44463</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44463</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44463</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44468</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44470</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44476</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44480</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>44483</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>44487</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>44491</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>44497</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44497</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44497</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44503</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44510</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44513</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44513</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44522</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44533</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44536</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44537</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44540</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44558</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44558</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44560</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44572</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44572</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44574</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44575</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44579</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44587</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>44592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>44595</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>44596</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>44596</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44607</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44607</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>44607</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>44608</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44609</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44613</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44627</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44627</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44628</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44628</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44628</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44634</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44634</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44638</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44655</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44656</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44669</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44670</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44685</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44686</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>44694</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>44705</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44705</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44712</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44713</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44720</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>44721</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>44725</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>44729</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>44729</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>44732</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44739</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44740</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44742</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44742</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44743</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44743</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44743</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44744</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44744</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>44746</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>44749</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44763</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44767</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44767</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44767</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44767</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44774</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44774</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44796</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44804</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44813</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44816</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44817</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44818</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>44818</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44823</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44824</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44824</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44833</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44837</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44840</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44841</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44843</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44846</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44847</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44847</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>44853</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44855</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>44858</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44858</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44872</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44876</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44879</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44888</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44894</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44894</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>44894</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>44895</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>44904</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>44907</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44908</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44910</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44915</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44918</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44923</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44923</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44933</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44933</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44938</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44942</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44945</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44945</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44946</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44953</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44961</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44964</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>44964</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44984</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44984</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44984</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44984</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44984</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44985</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44988</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44991</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44992</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44993</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44994</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44995</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44997</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         <v>44998</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>45000</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45002</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45009</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>45009</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45012</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45014</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45014</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45015</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45015</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>45016</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45016</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45020</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45022</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45027</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45028</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45035</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45049</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45049</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45050</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45054</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>45069</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45072</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45072</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>45077</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>45079</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>45083</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45083</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45083</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45083</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45083</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45085</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45089</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45089</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45089</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45090</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45096</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45098</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45098</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45106</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45107</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45107</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45110</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45110</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45112</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45116</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45116</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45119</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45119</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45119</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45119</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45121</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45121</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45121</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45121</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45121</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45121</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45121</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45121</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45121</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>45121</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45121</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>45124</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>45124</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>45125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45127</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45128</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45132</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45139</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45141</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45144</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45144</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>45149</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>45149</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>45149</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>45159</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>45159</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>45173</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>45180</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45180</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45182</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45183</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32326,7 +32326,7 @@
         <v>45189</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32383,7 +32383,7 @@
         <v>45189</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>45189</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45189</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45189</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45189</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45197</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45197</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45197</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45198</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
